--- a/grb_map/2_supermarket_map/supermarket-crawler/offical_spider/china_offical_markets_rt_format.xlsx
+++ b/grb_map/2_supermarket_map/supermarket-crawler/offical_spider/china_offical_markets_rt_format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14640" windowHeight="7670" activeTab="3"/>
+    <workbookView windowWidth="18540" windowHeight="7260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="china_offical_markets_rt_format" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953">
   <si>
     <t>品牌</t>
   </si>
@@ -2870,6 +2870,15 @@
   </si>
   <si>
     <t>总计</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>门店数</t>
+  </si>
+  <si>
+    <t>排名</t>
   </si>
 </sst>
 </file>
@@ -2879,8 +2888,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2892,7 +2901,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2906,14 +2915,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2926,8 +2935,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2941,8 +2974,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2957,23 +3005,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2981,7 +3014,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3002,38 +3043,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -3050,7 +3059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3062,7 +3071,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3074,7 +3095,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3092,91 +3221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3188,49 +3239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3270,11 +3279,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3298,22 +3328,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3322,18 +3337,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3353,17 +3366,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3375,10 +3384,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3387,133 +3396,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14653,213 +14662,308 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.2727272727273" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.0909090909091" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B2" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="C2">
+        <f>RANK(B2,B:B)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="C3">
+        <f t="shared" ref="C3:C24" si="0">RANK(B3,B:B)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>390</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="B7" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>380</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="B10" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>568</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>568</v>
       </c>
       <c r="B15" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B17" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B21" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>868</v>
-      </c>
       <c r="B24" s="2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>754</v>
+        <v>868</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -14867,7 +14971,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>653</v>
+        <v>754</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
@@ -14875,7 +14979,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>501</v>
+        <v>653</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -14883,7 +14987,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>501</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
@@ -14891,7 +14995,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2">
         <v>4</v>
@@ -14899,7 +15003,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
@@ -14907,7 +15011,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>674</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2">
         <v>4</v>
@@ -14915,7 +15019,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>398</v>
+        <v>674</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
@@ -14923,7 +15027,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B33" s="2">
         <v>4</v>
@@ -14931,7 +15035,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>228</v>
+        <v>387</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
@@ -14939,15 +15043,15 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>339</v>
+        <v>228</v>
       </c>
       <c r="B35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B36" s="2">
         <v>3</v>
@@ -14955,7 +15059,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
@@ -14963,7 +15067,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2">
         <v>3</v>
@@ -14971,7 +15075,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2">
         <v>3</v>
@@ -14979,7 +15083,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2">
         <v>3</v>
@@ -14987,7 +15091,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>893</v>
+        <v>333</v>
       </c>
       <c r="B41" s="2">
         <v>3</v>
@@ -14995,7 +15099,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>770</v>
+        <v>893</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
@@ -15003,7 +15107,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="B43" s="2">
         <v>3</v>
@@ -15011,7 +15115,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>847</v>
+        <v>762</v>
       </c>
       <c r="B44" s="2">
         <v>3</v>
@@ -15019,7 +15123,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="B45" s="2">
         <v>3</v>
@@ -15027,7 +15131,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>717</v>
+        <v>837</v>
       </c>
       <c r="B46" s="2">
         <v>3</v>
@@ -15035,7 +15139,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>245</v>
+        <v>717</v>
       </c>
       <c r="B47" s="2">
         <v>3</v>
@@ -15043,7 +15147,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>733</v>
+        <v>245</v>
       </c>
       <c r="B48" s="2">
         <v>3</v>
@@ -15051,15 +15155,15 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>336</v>
+        <v>733</v>
       </c>
       <c r="B49" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="B50" s="2">
         <v>2</v>
@@ -15067,7 +15171,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>877</v>
+        <v>311</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
@@ -15075,7 +15179,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="B52" s="2">
         <v>2</v>
@@ -15083,7 +15187,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>795</v>
+        <v>871</v>
       </c>
       <c r="B53" s="2">
         <v>2</v>
@@ -15091,7 +15195,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>759</v>
+        <v>795</v>
       </c>
       <c r="B54" s="2">
         <v>2</v>
@@ -15099,7 +15203,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="B55" s="2">
         <v>2</v>
@@ -15107,7 +15211,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>844</v>
+        <v>779</v>
       </c>
       <c r="B56" s="2">
         <v>2</v>
@@ -15115,7 +15219,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>932</v>
+        <v>844</v>
       </c>
       <c r="B57" s="2">
         <v>2</v>
@@ -15123,7 +15227,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>471</v>
+        <v>932</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
@@ -15131,7 +15235,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
@@ -15139,7 +15243,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="B60" s="2">
         <v>2</v>
@@ -15147,7 +15251,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
@@ -15155,7 +15259,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B62" s="2">
         <v>2</v>
@@ -15163,7 +15267,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
@@ -15171,7 +15275,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>631</v>
+        <v>525</v>
       </c>
       <c r="B64" s="2">
         <v>2</v>
@@ -15179,7 +15283,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
@@ -15187,7 +15291,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>107</v>
+        <v>628</v>
       </c>
       <c r="B66" s="2">
         <v>2</v>
@@ -15195,7 +15299,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>679</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2">
         <v>2</v>
@@ -15203,7 +15307,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B68" s="2">
         <v>2</v>
@@ -15211,7 +15315,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>596</v>
+        <v>682</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
@@ -15219,7 +15323,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="B70" s="2">
         <v>2</v>
@@ -15227,7 +15331,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>574</v>
+        <v>613</v>
       </c>
       <c r="B71" s="2">
         <v>2</v>
@@ -15235,7 +15339,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>405</v>
+        <v>574</v>
       </c>
       <c r="B72" s="2">
         <v>2</v>
@@ -15243,7 +15347,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="B73" s="2">
         <v>2</v>
@@ -15251,7 +15355,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="B74" s="2">
         <v>2</v>
@@ -15259,7 +15363,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="B75" s="2">
         <v>2</v>
@@ -15267,7 +15371,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="B76" s="2">
         <v>2</v>
@@ -15275,7 +15379,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>918</v>
+        <v>479</v>
       </c>
       <c r="B77" s="2">
         <v>2</v>
@@ -15283,7 +15387,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>231</v>
+        <v>918</v>
       </c>
       <c r="B78" s="2">
         <v>2</v>
@@ -15291,7 +15395,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="B79" s="2">
         <v>2</v>
@@ -15299,7 +15403,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="B80" s="2">
         <v>2</v>
@@ -15307,7 +15411,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="B81" s="2">
         <v>2</v>
@@ -15315,15 +15419,15 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="B82" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="B83" s="2">
         <v>1</v>
@@ -15331,7 +15435,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
@@ -15339,7 +15443,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="B85" s="2">
         <v>1</v>
@@ -15347,7 +15451,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="B86" s="2">
         <v>1</v>
@@ -15355,7 +15459,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>484</v>
+        <v>324</v>
       </c>
       <c r="B87" s="2">
         <v>1</v>
@@ -15363,7 +15467,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>880</v>
+        <v>484</v>
       </c>
       <c r="B88" s="2">
         <v>1</v>
@@ -15371,7 +15475,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="B89" s="2">
         <v>1</v>
@@ -15379,7 +15483,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>699</v>
+        <v>904</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
@@ -15387,7 +15491,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>740</v>
+        <v>699</v>
       </c>
       <c r="B91" s="2">
         <v>1</v>
@@ -15395,7 +15499,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>816</v>
+        <v>740</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
@@ -15403,7 +15507,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>788</v>
+        <v>816</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>
@@ -15411,7 +15515,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>826</v>
+        <v>788</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
@@ -15419,7 +15523,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="B95" s="2">
         <v>1</v>
@@ -15427,7 +15531,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>767</v>
+        <v>819</v>
       </c>
       <c r="B96" s="2">
         <v>1</v>
@@ -15435,7 +15539,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>863</v>
+        <v>767</v>
       </c>
       <c r="B97" s="2">
         <v>1</v>
@@ -15443,7 +15547,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="B98" s="2">
         <v>1</v>
@@ -15451,7 +15555,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B99" s="2">
         <v>1</v>
@@ -15459,7 +15563,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B100" s="2">
         <v>1</v>
@@ -15467,7 +15571,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>923</v>
+        <v>855</v>
       </c>
       <c r="B101" s="2">
         <v>1</v>
@@ -15475,7 +15579,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B102" s="2">
         <v>1</v>
@@ -15483,7 +15587,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
       <c r="B103" s="2">
         <v>1</v>
@@ -15491,7 +15595,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>468</v>
+        <v>945</v>
       </c>
       <c r="B104" s="2">
         <v>1</v>
@@ -15499,7 +15603,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B105" s="2">
         <v>1</v>
@@ -15507,7 +15611,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="B106" s="2">
         <v>1</v>
@@ -15515,7 +15619,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B107" s="2">
         <v>1</v>
@@ -15523,7 +15627,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B108" s="2">
         <v>1</v>
@@ -15531,7 +15635,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>544</v>
+        <v>498</v>
       </c>
       <c r="B109" s="2">
         <v>1</v>
@@ -15539,7 +15643,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
@@ -15547,7 +15651,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
@@ -15555,7 +15659,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="B112" s="2">
         <v>1</v>
@@ -15563,7 +15667,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>650</v>
+        <v>541</v>
       </c>
       <c r="B113" s="2">
         <v>1</v>
@@ -15571,7 +15675,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
@@ -15579,7 +15683,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B115" s="2">
         <v>1</v>
@@ -15587,7 +15691,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
@@ -15595,7 +15699,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B117" s="2">
         <v>1</v>
@@ -15603,7 +15707,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="B118" s="2">
         <v>1</v>
@@ -15611,7 +15715,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B119" s="2">
         <v>1</v>
@@ -15619,7 +15723,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B120" s="2">
         <v>1</v>
@@ -15627,7 +15731,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B121" s="2">
         <v>1</v>
@@ -15635,7 +15739,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>516</v>
+        <v>671</v>
       </c>
       <c r="B122" s="2">
         <v>1</v>
@@ -15643,7 +15747,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B123" s="2">
         <v>1</v>
@@ -15651,7 +15755,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="B124" s="2">
         <v>1</v>
@@ -15659,7 +15763,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>946</v>
+        <v>508</v>
       </c>
       <c r="B125" s="2">
         <v>1</v>
@@ -15667,7 +15771,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>511</v>
+        <v>946</v>
       </c>
       <c r="B126" s="2">
         <v>1</v>
@@ -15675,7 +15779,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>687</v>
+        <v>511</v>
       </c>
       <c r="B127" s="2">
         <v>1</v>
@@ -15683,7 +15787,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B128" s="2">
         <v>1</v>
@@ -15691,7 +15795,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>584</v>
+        <v>694</v>
       </c>
       <c r="B129" s="2">
         <v>1</v>
@@ -15699,7 +15803,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B130" s="2">
         <v>1</v>
@@ -15707,7 +15811,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="B131" s="2">
         <v>1</v>
@@ -15715,7 +15819,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="B132" s="2">
         <v>1</v>
@@ -15723,7 +15827,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B133" s="2">
         <v>1</v>
@@ -15731,7 +15835,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="B134" s="2">
         <v>1</v>
@@ -15739,7 +15843,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B135" s="2">
         <v>1</v>
@@ -15747,7 +15851,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>943</v>
+        <v>622</v>
       </c>
       <c r="B136" s="2">
         <v>1</v>
@@ -15755,7 +15859,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B137" s="2">
         <v>1</v>
@@ -15763,7 +15867,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>418</v>
+        <v>940</v>
       </c>
       <c r="B138" s="2">
         <v>1</v>
@@ -15771,7 +15875,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B139" s="2">
         <v>1</v>
@@ -15779,7 +15883,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="B140" s="2">
         <v>1</v>
@@ -15787,7 +15891,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="B141" s="2">
         <v>1</v>
@@ -15795,7 +15899,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B142" s="2">
         <v>1</v>
@@ -15803,7 +15907,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="B143" s="2">
         <v>1</v>
@@ -15811,7 +15915,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>937</v>
+        <v>395</v>
       </c>
       <c r="B144" s="2">
         <v>1</v>
@@ -15819,7 +15923,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>705</v>
+        <v>937</v>
       </c>
       <c r="B145" s="2">
         <v>1</v>
@@ -15827,7 +15931,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B146" s="2">
         <v>1</v>
@@ -15835,7 +15939,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B147" s="2">
         <v>1</v>
@@ -15843,7 +15947,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B148" s="2">
         <v>1</v>
@@ -15851,7 +15955,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="B149" s="2">
         <v>1</v>
@@ -15859,7 +15963,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="B150" s="2">
         <v>1</v>
@@ -15867,7 +15971,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="B151" s="2">
         <v>1</v>
@@ -15875,7 +15979,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B152" s="2">
         <v>1</v>
@@ -15883,7 +15987,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>947</v>
+        <v>725</v>
       </c>
       <c r="B153" s="2">
         <v>1</v>
@@ -15891,9 +15995,17 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B154" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B155" s="2">
         <v>1</v>
       </c>
     </row>
@@ -15901,7 +16013,7 @@
   <sortState ref="A1:B154">
     <sortCondition ref="B1:B154" descending="1"/>
   </sortState>
-  <conditionalFormatting sqref="A$1:B$1048576">
+  <conditionalFormatting sqref="A2:B1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
